--- a/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 2-A.xlsx
+++ b/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 2-A.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>BA7 replicate 1</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>GMI1000 replicate 3</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 2</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 1</t>
-  </si>
-  <si>
-    <t>ipo1609 replicate 3</t>
   </si>
   <si>
     <t>K60 replicate 2</t>
@@ -759,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK97"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,7 +758,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:34">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,132 +858,114 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B3" t="n">
         <v>5.25</v>
@@ -1040,72 +1013,63 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T3" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.5</v>
+        <v>6.125</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.125</v>
+        <v>25.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.25</v>
+        <v>4.125</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.125</v>
+        <v>42.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>5.875</v>
       </c>
       <c r="AF3" t="n">
-        <v>42.5</v>
+        <v>6.375</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6.375</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
         <v>0.5</v>
@@ -1144,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1153,72 +1117,63 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>4.75</v>
+        <v>0.5</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5</v>
+        <v>6.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
         <v>0.5</v>
@@ -1272,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1281,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1290,48 +1245,39 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5</v>
+        <v>1.125</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.25</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1385,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.125</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1394,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1415,36 +1361,27 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
-      <c r="AI6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="n">
         <v>178.375</v>
@@ -1483,81 +1420,72 @@
         <v>1202.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2631.625</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2513.875</v>
+        <v>14.75</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.125</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>19.25</v>
       </c>
       <c r="R7" t="n">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="T7" t="n">
-        <v>19.25</v>
+        <v>1220.625</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>364.625</v>
       </c>
       <c r="V7" t="n">
-        <v>72</v>
+        <v>871.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1220.625</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>364.625</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.75</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>3069.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>3032.375</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>3057.625</v>
       </c>
       <c r="AC7" t="n">
-        <v>3069.5</v>
+        <v>39.125</v>
       </c>
       <c r="AD7" t="n">
-        <v>3032.375</v>
+        <v>158.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>3057.625</v>
+        <v>12.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>39.125</v>
+        <v>1490.625</v>
       </c>
       <c r="AG7" t="n">
-        <v>158.75</v>
+        <v>1304.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1490.625</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1304.625</v>
-      </c>
-      <c r="AK7" t="n">
         <v>1916.875</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1596,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1635,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1644,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1653,24 +1581,15 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>1.25</v>
@@ -1709,37 +1628,37 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>90</v>
+        <v>0.25</v>
       </c>
       <c r="O9" t="n">
-        <v>254</v>
+        <v>49.25</v>
       </c>
       <c r="P9" t="n">
-        <v>39</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9" t="n">
-        <v>49.25</v>
+        <v>18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.75</v>
+        <v>21.5</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.5</v>
       </c>
-      <c r="U9" t="n">
-        <v>18</v>
-      </c>
-      <c r="V9" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1748,42 +1667,33 @@
         <v>0.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>0.25</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0.25</v>
       </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
         <v>2581.75</v>
@@ -1822,81 +1732,72 @@
         <v>19</v>
       </c>
       <c r="N10" t="n">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>209.625</v>
+        <v>0.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>280.375</v>
       </c>
       <c r="R10" t="n">
-        <v>0.25</v>
+        <v>925.875</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1883.625</v>
       </c>
       <c r="T10" t="n">
-        <v>280.375</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>925.875</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1883.625</v>
+        <v>7.375</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1706.125</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>763</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.375</v>
+        <v>288.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>1706.125</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>763</v>
+        <v>21.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>288.75</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>536.375</v>
       </c>
       <c r="AD10" t="n">
-        <v>21.25</v>
+        <v>605.125</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>536.375</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>605.125</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" t="n">
         <v>7884.875</v>
@@ -1935,7 +1836,7 @@
         <v>30.5</v>
       </c>
       <c r="N11" t="n">
-        <v>236</v>
+        <v>175.625</v>
       </c>
       <c r="O11" t="n">
         <v>0.75</v>
@@ -1944,72 +1845,63 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.625</v>
+        <v>2105.625</v>
       </c>
       <c r="R11" t="n">
+        <v>7814</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7777.875</v>
+      </c>
+      <c r="T11" t="n">
         <v>0.75</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2105.625</v>
-      </c>
       <c r="U11" t="n">
-        <v>7814</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7777.875</v>
+        <v>58.625</v>
       </c>
       <c r="W11" t="n">
-        <v>0.75</v>
+        <v>6940.5</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7072.125</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.625</v>
+        <v>6976.125</v>
       </c>
       <c r="Z11" t="n">
-        <v>6940.5</v>
+        <v>50.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>7072.125</v>
+        <v>129.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>6976.125</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>50.25</v>
+        <v>1766.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>129.5</v>
+        <v>2405.125</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1240.875</v>
       </c>
       <c r="AF11" t="n">
-        <v>1766.25</v>
+        <v>49.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>2405.125</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1240.875</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
         <v>109</v>
@@ -2048,81 +1940,72 @@
         <v>224.25</v>
       </c>
       <c r="N12" t="n">
-        <v>380.25</v>
+        <v>540.375</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>75.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.625</v>
+        <v>14.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>540.375</v>
+        <v>139.5</v>
       </c>
       <c r="R12" t="n">
-        <v>75.5</v>
+        <v>230</v>
       </c>
       <c r="S12" t="n">
-        <v>14.75</v>
+        <v>67</v>
       </c>
       <c r="T12" t="n">
-        <v>139.5</v>
+        <v>155.75</v>
       </c>
       <c r="U12" t="n">
-        <v>230</v>
+        <v>0.25</v>
       </c>
       <c r="V12" t="n">
-        <v>67</v>
+        <v>395.75</v>
       </c>
       <c r="W12" t="n">
-        <v>155.75</v>
+        <v>66</v>
       </c>
       <c r="X12" t="n">
-        <v>0.25</v>
+        <v>313.875</v>
       </c>
       <c r="Y12" t="n">
-        <v>395.75</v>
+        <v>144</v>
       </c>
       <c r="Z12" t="n">
-        <v>66</v>
+        <v>279.125</v>
       </c>
       <c r="AA12" t="n">
-        <v>313.875</v>
+        <v>364</v>
       </c>
       <c r="AB12" t="n">
-        <v>144</v>
+        <v>7.125</v>
       </c>
       <c r="AC12" t="n">
-        <v>279.125</v>
+        <v>89.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>364</v>
+        <v>609</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.125</v>
+        <v>9.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>89.5</v>
+        <v>197.75</v>
       </c>
       <c r="AG12" t="n">
-        <v>609</v>
+        <v>4.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>197.75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AK12" t="n">
         <v>16.75</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" t="n">
         <v>5991.625</v>
@@ -2161,81 +2044,72 @@
         <v>4089.75</v>
       </c>
       <c r="N13" t="n">
-        <v>979.5</v>
+        <v>11939.75</v>
       </c>
       <c r="O13" t="n">
-        <v>749.5</v>
+        <v>14237.625</v>
       </c>
       <c r="P13" t="n">
-        <v>310.125</v>
+        <v>10707</v>
       </c>
       <c r="Q13" t="n">
-        <v>11939.75</v>
+        <v>11398.625</v>
       </c>
       <c r="R13" t="n">
-        <v>14237.625</v>
+        <v>9096</v>
       </c>
       <c r="S13" t="n">
-        <v>10707</v>
+        <v>7916.125</v>
       </c>
       <c r="T13" t="n">
-        <v>11398.625</v>
+        <v>3992.5</v>
       </c>
       <c r="U13" t="n">
-        <v>9096</v>
+        <v>3611.375</v>
       </c>
       <c r="V13" t="n">
-        <v>7916.125</v>
+        <v>3943.125</v>
       </c>
       <c r="W13" t="n">
-        <v>3992.5</v>
+        <v>10211.375</v>
       </c>
       <c r="X13" t="n">
-        <v>3611.375</v>
+        <v>9566.875</v>
       </c>
       <c r="Y13" t="n">
-        <v>3943.125</v>
+        <v>9686.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>10211.375</v>
+        <v>1406.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>9566.875</v>
+        <v>1202.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>9686.25</v>
+        <v>1323.375</v>
       </c>
       <c r="AC13" t="n">
-        <v>1406.25</v>
+        <v>13717.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>1202.25</v>
+        <v>13747.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1323.375</v>
+        <v>13086.625</v>
       </c>
       <c r="AF13" t="n">
-        <v>13717.25</v>
+        <v>865.125</v>
       </c>
       <c r="AG13" t="n">
-        <v>13747.5</v>
+        <v>538.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>13086.625</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>865.125</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>538.75</v>
-      </c>
-      <c r="AK13" t="n">
         <v>946.375</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="n">
         <v>34.125</v>
@@ -2280,75 +2154,66 @@
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R14" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.25</v>
       </c>
-      <c r="S14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6.125</v>
-      </c>
-      <c r="V14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>108</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>246</v>
+      </c>
+      <c r="AE14" t="n">
         <v>1.25</v>
       </c>
-      <c r="AA14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3</v>
-      </c>
       <c r="AF14" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2432,36 +2297,27 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
-      <c r="AI15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2562,19 +2418,10 @@
       <c r="AH16" t="n">
         <v>0</v>
       </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:34">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2661,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>84.75</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2670,24 +2517,15 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>84.75</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
       </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
         <v>0.5</v>
@@ -2726,81 +2564,72 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>76.875</v>
       </c>
       <c r="Q18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>76.875</v>
+        <v>9.375</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V18" t="n">
-        <v>9.375</v>
+        <v>13.25</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.25</v>
+        <v>18.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.125</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
       </c>
       <c r="AF18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
         <v>1.25</v>
       </c>
-      <c r="AG18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1.25</v>
-      </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:34">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2866,22 +2695,22 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>186.75</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>99.875</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>114.75</v>
       </c>
       <c r="Z19" t="n">
-        <v>186.75</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>99.875</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>114.75</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2901,19 +2730,10 @@
       <c r="AH19" t="n">
         <v>0</v>
       </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:34">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -3000,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -3009,24 +2829,15 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:34">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -3110,36 +2921,27 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
       </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:34">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -3178,81 +2980,72 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1281.125</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>97.125</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1333.375</v>
       </c>
       <c r="Q22" t="n">
-        <v>1281.125</v>
+        <v>174.125</v>
       </c>
       <c r="R22" t="n">
-        <v>97.125</v>
+        <v>72.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1333.375</v>
+        <v>127.5</v>
       </c>
       <c r="T22" t="n">
-        <v>174.125</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.75</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>127.5</v>
+        <v>1.125</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.125</v>
+        <v>10.75</v>
       </c>
       <c r="Z22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.75</v>
+        <v>0.125</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.125</v>
+        <v>55.375</v>
       </c>
       <c r="AF22" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>55.375</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:34">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -3303,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3312,25 +3105,25 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -3339,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>315.75</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3348,24 +3141,15 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>315.75</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:34">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="n">
         <v>2.75</v>
@@ -3407,78 +3191,69 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>29.5</v>
+        <v>37.625</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R24" t="n">
-        <v>37.625</v>
+        <v>2.25</v>
       </c>
       <c r="S24" t="n">
-        <v>6.5</v>
+        <v>6.625</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25</v>
+        <v>112</v>
       </c>
       <c r="U24" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>6.625</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>112</v>
+        <v>13.125</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>17.75</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>40.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>13.125</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>40.25</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>99.375</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>241.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>12.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>99.375</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>241.5</v>
+        <v>0.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:34">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" t="n">
         <v>173.625</v>
@@ -3517,81 +3292,72 @@
         <v>8.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>225.75</v>
       </c>
       <c r="O25" t="n">
-        <v>0.625</v>
+        <v>334.125</v>
       </c>
       <c r="P25" t="n">
+        <v>63.625</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>449.125</v>
+      </c>
+      <c r="S25" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>93.625</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>99.875</v>
+      </c>
+      <c r="W25" t="n">
+        <v>138.375</v>
+      </c>
+      <c r="X25" t="n">
+        <v>832.125</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>372.125</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>163</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>155.375</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>44.125</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>737.375</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q25" t="n">
-        <v>225.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>334.125</v>
-      </c>
-      <c r="S25" t="n">
-        <v>63.625</v>
-      </c>
-      <c r="T25" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>449.125</v>
-      </c>
-      <c r="V25" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>93.625</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>99.875</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>138.375</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>832.125</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>372.125</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>163</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>155.375</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>44.125</v>
-      </c>
       <c r="AF25" t="n">
-        <v>35.5</v>
+        <v>9.125</v>
       </c>
       <c r="AG25" t="n">
-        <v>737.375</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>9.125</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK25" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:34">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -3633,417 +3399,381 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>683.375</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>7</v>
-      </c>
-      <c r="V26" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>683.375</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK26" t="n">
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:34">
+      <c r="A30" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -4144,358 +3874,322 @@
       <c r="AH30" t="n">
         <v>0</v>
       </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:34">
       <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37">
-      <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37">
-      <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37">
-      <c r="A34" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -4558,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -4567,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.125</v>
+        <v>0.625</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -4576,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>36.25</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -4591,24 +4285,15 @@
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>36.25</v>
+        <v>0</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
       </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:34">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -4695,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>168.25</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -4704,24 +4389,15 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>168.25</v>
+        <v>0</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
       </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:34">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4763,25 +4439,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>12</v>
+        <v>4.25</v>
       </c>
       <c r="S36" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4790,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -4799,42 +4475,33 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>376.75</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>376.75</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:34">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" t="n">
         <v>58</v>
@@ -4873,81 +4540,72 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>136.375</v>
+        <v>121</v>
       </c>
       <c r="P37" t="n">
-        <v>46.5</v>
+        <v>51.625</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="R37" t="n">
-        <v>121</v>
+        <v>747.375</v>
       </c>
       <c r="S37" t="n">
-        <v>51.625</v>
+        <v>185.375</v>
       </c>
       <c r="T37" t="n">
-        <v>26.25</v>
+        <v>133</v>
       </c>
       <c r="U37" t="n">
-        <v>747.375</v>
+        <v>4.75</v>
       </c>
       <c r="V37" t="n">
-        <v>185.375</v>
+        <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>133</v>
+        <v>83.375</v>
       </c>
       <c r="X37" t="n">
-        <v>4.75</v>
+        <v>670.25</v>
       </c>
       <c r="Y37" t="n">
-        <v>3</v>
+        <v>529</v>
       </c>
       <c r="Z37" t="n">
-        <v>83.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>670.25</v>
+        <v>0.375</v>
       </c>
       <c r="AB37" t="n">
-        <v>529</v>
+        <v>14.375</v>
       </c>
       <c r="AC37" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF37" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD37" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>14.375</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>21.25</v>
-      </c>
       <c r="AG37" t="n">
-        <v>1250</v>
+        <v>35.75</v>
       </c>
       <c r="AH37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="AK37" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:34">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" t="n">
         <v>0.75</v>
@@ -4989,78 +4647,69 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>38</v>
+        <v>2.5</v>
       </c>
       <c r="V38" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>2.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
         <v>0.25</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>464.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>464.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
       </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:34">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -5147,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>3.625</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
@@ -5156,24 +4805,15 @@
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>3.625</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
       </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:34">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -5274,19 +4914,10 @@
       <c r="AH40" t="n">
         <v>0</v>
       </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:34">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -5373,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -5382,24 +5013,15 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
       </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:34">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -5500,19 +5122,10 @@
       <c r="AH42" t="n">
         <v>0</v>
       </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:34">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -5581,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>7.875</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5590,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.875</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
@@ -5599,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -5608,24 +5221,15 @@
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
       </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:34">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -5664,13 +5268,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>195.25</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -5712,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -5721,24 +5325,15 @@
         <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
         <v>0</v>
       </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:34">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -5825,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -5834,24 +5429,15 @@
         <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
       </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:34">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -5938,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -5947,24 +5533,15 @@
         <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
       </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:34">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" t="n">
         <v>4953.5</v>
@@ -6003,81 +5580,72 @@
         <v>3392.875</v>
       </c>
       <c r="N47" t="n">
-        <v>12433.75</v>
+        <v>13332.875</v>
       </c>
       <c r="O47" t="n">
-        <v>12470.75</v>
+        <v>14804.125</v>
       </c>
       <c r="P47" t="n">
-        <v>12470.5</v>
+        <v>14469.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>13332.875</v>
+        <v>6725.375</v>
       </c>
       <c r="R47" t="n">
-        <v>14804.125</v>
+        <v>6597.125</v>
       </c>
       <c r="S47" t="n">
-        <v>14469.5</v>
+        <v>6362.125</v>
       </c>
       <c r="T47" t="n">
-        <v>6725.375</v>
+        <v>2121.625</v>
       </c>
       <c r="U47" t="n">
-        <v>6597.125</v>
+        <v>1741.125</v>
       </c>
       <c r="V47" t="n">
-        <v>6362.125</v>
+        <v>1339.625</v>
       </c>
       <c r="W47" t="n">
-        <v>2121.625</v>
+        <v>4933.125</v>
       </c>
       <c r="X47" t="n">
-        <v>1741.125</v>
+        <v>5451.625</v>
       </c>
       <c r="Y47" t="n">
-        <v>1339.625</v>
+        <v>5278</v>
       </c>
       <c r="Z47" t="n">
-        <v>4933.125</v>
+        <v>12547.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>5451.625</v>
+        <v>13133.625</v>
       </c>
       <c r="AB47" t="n">
-        <v>5278</v>
+        <v>14420.25</v>
       </c>
       <c r="AC47" t="n">
-        <v>12547.5</v>
+        <v>6698.75</v>
       </c>
       <c r="AD47" t="n">
-        <v>13133.625</v>
+        <v>7972.875</v>
       </c>
       <c r="AE47" t="n">
-        <v>14420.25</v>
+        <v>6706.25</v>
       </c>
       <c r="AF47" t="n">
-        <v>6698.75</v>
+        <v>8273.125</v>
       </c>
       <c r="AG47" t="n">
-        <v>7972.875</v>
+        <v>8931.25</v>
       </c>
       <c r="AH47" t="n">
-        <v>6706.25</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>8273.125</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>8931.25</v>
-      </c>
-      <c r="AK47" t="n">
         <v>8635</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:34">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -6116,38 +5684,38 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
         <v>0.25</v>
       </c>
-      <c r="P48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
       <c r="Y48" t="n">
         <v>0</v>
       </c>
@@ -6155,42 +5723,33 @@
         <v>0</v>
       </c>
       <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
       <c r="AC48" t="n">
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
         <v>0.25</v>
       </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>66.25</v>
-      </c>
       <c r="AH48" t="n">
         <v>0</v>
       </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:34">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B49" t="n">
         <v>3844.75</v>
@@ -6229,81 +5788,72 @@
         <v>1494.75</v>
       </c>
       <c r="N49" t="n">
-        <v>7436.75</v>
+        <v>8187.25</v>
       </c>
       <c r="O49" t="n">
-        <v>8198.5</v>
+        <v>7953.125</v>
       </c>
       <c r="P49" t="n">
-        <v>7350.375</v>
+        <v>8882.375</v>
       </c>
       <c r="Q49" t="n">
-        <v>8187.25</v>
+        <v>1182.375</v>
       </c>
       <c r="R49" t="n">
-        <v>7953.125</v>
+        <v>3169.875</v>
       </c>
       <c r="S49" t="n">
-        <v>8882.375</v>
+        <v>3712.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1182.375</v>
+        <v>7765.5</v>
       </c>
       <c r="U49" t="n">
-        <v>3169.875</v>
+        <v>7396</v>
       </c>
       <c r="V49" t="n">
-        <v>3712.5</v>
+        <v>7304.625</v>
       </c>
       <c r="W49" t="n">
-        <v>7765.5</v>
+        <v>2439.625</v>
       </c>
       <c r="X49" t="n">
-        <v>7396</v>
+        <v>2538.375</v>
       </c>
       <c r="Y49" t="n">
-        <v>7304.625</v>
+        <v>3071.75</v>
       </c>
       <c r="Z49" t="n">
-        <v>2439.625</v>
+        <v>13226</v>
       </c>
       <c r="AA49" t="n">
-        <v>2538.375</v>
+        <v>13370.875</v>
       </c>
       <c r="AB49" t="n">
-        <v>3071.75</v>
+        <v>14120.125</v>
       </c>
       <c r="AC49" t="n">
-        <v>13226</v>
+        <v>2033.875</v>
       </c>
       <c r="AD49" t="n">
-        <v>13370.875</v>
+        <v>3769.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>14120.125</v>
+        <v>1670.25</v>
       </c>
       <c r="AF49" t="n">
-        <v>2033.875</v>
+        <v>645.25</v>
       </c>
       <c r="AG49" t="n">
-        <v>3769.5</v>
+        <v>766.625</v>
       </c>
       <c r="AH49" t="n">
-        <v>1670.25</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>645.25</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>766.625</v>
-      </c>
-      <c r="AK49" t="n">
         <v>624.75</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:34">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" t="n">
         <v>16.875</v>
@@ -6348,75 +5898,66 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>189.5</v>
       </c>
       <c r="S50" t="n">
-        <v>2.25</v>
+        <v>33.125</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>189.5</v>
+        <v>0.25</v>
       </c>
       <c r="V50" t="n">
-        <v>33.125</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="X50" t="n">
-        <v>0.25</v>
+        <v>191.375</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>354.375</v>
       </c>
       <c r="Z50" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>191.375</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>354.375</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>579.125</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>532.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>579.125</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>532.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:34">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B51" t="n">
         <v>2276.625</v>
@@ -6455,81 +5996,72 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>6.5</v>
+        <v>9632</v>
       </c>
       <c r="O51" t="n">
-        <v>177.375</v>
+        <v>4588</v>
       </c>
       <c r="P51" t="n">
-        <v>56.25</v>
+        <v>10214.125</v>
       </c>
       <c r="Q51" t="n">
-        <v>9632</v>
+        <v>7.5</v>
       </c>
       <c r="R51" t="n">
-        <v>4588</v>
+        <v>137.5</v>
       </c>
       <c r="S51" t="n">
-        <v>10214.125</v>
+        <v>43.25</v>
       </c>
       <c r="T51" t="n">
-        <v>7.5</v>
+        <v>4460.625</v>
       </c>
       <c r="U51" t="n">
-        <v>137.5</v>
+        <v>4000</v>
       </c>
       <c r="V51" t="n">
-        <v>43.25</v>
+        <v>2187.375</v>
       </c>
       <c r="W51" t="n">
-        <v>4460.625</v>
+        <v>2305</v>
       </c>
       <c r="X51" t="n">
-        <v>4000</v>
+        <v>1698.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>2187.375</v>
+        <v>101</v>
       </c>
       <c r="Z51" t="n">
-        <v>2305</v>
+        <v>11748.375</v>
       </c>
       <c r="AA51" t="n">
-        <v>1698.25</v>
+        <v>12690.875</v>
       </c>
       <c r="AB51" t="n">
-        <v>101</v>
+        <v>12769.375</v>
       </c>
       <c r="AC51" t="n">
-        <v>11748.375</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
-        <v>12690.875</v>
+        <v>113.75</v>
       </c>
       <c r="AE51" t="n">
-        <v>12769.375</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>113.75</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
       </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:34">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -6616,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
@@ -6625,24 +6157,15 @@
         <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
         <v>0</v>
       </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:34">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" t="n">
         <v>0.75</v>
@@ -6729,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
@@ -6738,24 +6261,15 @@
         <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="n">
         <v>0</v>
       </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:34">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B54" t="n">
         <v>220</v>
@@ -6794,81 +6308,72 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O54" t="n">
-        <v>30.875</v>
+        <v>9.75</v>
       </c>
       <c r="P54" t="n">
-        <v>5.25</v>
+        <v>12.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>9.75</v>
+        <v>428</v>
       </c>
       <c r="S54" t="n">
-        <v>12.75</v>
+        <v>46.875</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>428</v>
+        <v>4.5</v>
       </c>
       <c r="V54" t="n">
-        <v>46.875</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>196.625</v>
       </c>
       <c r="X54" t="n">
-        <v>4.5</v>
+        <v>413</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>57.75</v>
       </c>
       <c r="Z54" t="n">
-        <v>196.625</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>413</v>
+        <v>0.125</v>
       </c>
       <c r="AB54" t="n">
-        <v>57.75</v>
+        <v>0.625</v>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.125</v>
+        <v>71.25</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
         <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>71.25</v>
+        <v>9.875</v>
       </c>
       <c r="AH54" t="n">
         <v>0</v>
       </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>9.875</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:34">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -6969,19 +6474,10 @@
       <c r="AH55" t="n">
         <v>0</v>
       </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:34">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -7023,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -7047,29 +6543,29 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="Y56" t="n">
         <v>0</v>
       </c>
       <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA56" t="n">
-        <v>219</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
       <c r="AE56" t="n">
         <v>0</v>
       </c>
@@ -7077,24 +6573,15 @@
         <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
         <v>0</v>
       </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:34">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" t="n">
         <v>9013.25</v>
@@ -7133,81 +6620,72 @@
         <v>1363.625</v>
       </c>
       <c r="N57" t="n">
-        <v>14208.875</v>
+        <v>13292.25</v>
       </c>
       <c r="O57" t="n">
-        <v>14817.5</v>
+        <v>13621.25</v>
       </c>
       <c r="P57" t="n">
-        <v>14126.875</v>
+        <v>12191.625</v>
       </c>
       <c r="Q57" t="n">
-        <v>13292.25</v>
+        <v>11007.5</v>
       </c>
       <c r="R57" t="n">
-        <v>13621.25</v>
+        <v>10981.375</v>
       </c>
       <c r="S57" t="n">
-        <v>12191.625</v>
+        <v>11373</v>
       </c>
       <c r="T57" t="n">
-        <v>11007.5</v>
+        <v>4076.625</v>
       </c>
       <c r="U57" t="n">
-        <v>10981.375</v>
+        <v>3579.75</v>
       </c>
       <c r="V57" t="n">
-        <v>11373</v>
+        <v>3203.875</v>
       </c>
       <c r="W57" t="n">
-        <v>4076.625</v>
+        <v>6641.125</v>
       </c>
       <c r="X57" t="n">
-        <v>3579.75</v>
+        <v>7213.625</v>
       </c>
       <c r="Y57" t="n">
-        <v>3203.875</v>
+        <v>4358.25</v>
       </c>
       <c r="Z57" t="n">
-        <v>6641.125</v>
+        <v>13981.625</v>
       </c>
       <c r="AA57" t="n">
-        <v>7213.625</v>
+        <v>13442.625</v>
       </c>
       <c r="AB57" t="n">
-        <v>4358.25</v>
+        <v>14219.875</v>
       </c>
       <c r="AC57" t="n">
-        <v>13981.625</v>
+        <v>4730.75</v>
       </c>
       <c r="AD57" t="n">
-        <v>13442.625</v>
+        <v>5847</v>
       </c>
       <c r="AE57" t="n">
-        <v>14219.875</v>
+        <v>8654.625</v>
       </c>
       <c r="AF57" t="n">
-        <v>4730.75</v>
+        <v>9677.125</v>
       </c>
       <c r="AG57" t="n">
-        <v>5847</v>
+        <v>9344.125</v>
       </c>
       <c r="AH57" t="n">
-        <v>8654.625</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>9677.125</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>9344.125</v>
-      </c>
-      <c r="AK57" t="n">
         <v>9261.5</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:34">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B58" t="n">
         <v>7.875</v>
@@ -7258,69 +6736,60 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>24.75</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>9.875</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>24.75</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>9.875</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>52.125</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>52.125</v>
+        <v>1.25</v>
       </c>
       <c r="AB58" t="n">
-        <v>2.75</v>
+        <v>38.375</v>
       </c>
       <c r="AC58" t="n">
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>1.25</v>
+        <v>45.25</v>
       </c>
       <c r="AE58" t="n">
-        <v>38.375</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
         <v>0</v>
       </c>
       <c r="AG58" t="n">
-        <v>45.25</v>
+        <v>0</v>
       </c>
       <c r="AH58" t="n">
         <v>0</v>
       </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:34">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -7407,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
@@ -7416,24 +6885,15 @@
         <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
       </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:34">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -7475,78 +6935,69 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>11</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>63</v>
-      </c>
-      <c r="S60" t="n">
-        <v>123</v>
-      </c>
-      <c r="T60" t="n">
-        <v>11</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>15.375</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>1</v>
-      </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:34">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B61" t="n">
         <v>301.375</v>
@@ -7585,81 +7036,72 @@
         <v>19.5</v>
       </c>
       <c r="N61" t="n">
-        <v>175.5</v>
+        <v>90.5</v>
       </c>
       <c r="O61" t="n">
-        <v>693.875</v>
+        <v>966.75</v>
       </c>
       <c r="P61" t="n">
-        <v>496.5</v>
+        <v>1039.125</v>
       </c>
       <c r="Q61" t="n">
-        <v>90.5</v>
+        <v>167.625</v>
       </c>
       <c r="R61" t="n">
-        <v>966.75</v>
+        <v>857.625</v>
       </c>
       <c r="S61" t="n">
-        <v>1039.125</v>
+        <v>134.625</v>
       </c>
       <c r="T61" t="n">
-        <v>167.625</v>
+        <v>762.375</v>
       </c>
       <c r="U61" t="n">
-        <v>857.625</v>
+        <v>467.5</v>
       </c>
       <c r="V61" t="n">
-        <v>134.625</v>
+        <v>142.875</v>
       </c>
       <c r="W61" t="n">
-        <v>762.375</v>
+        <v>178</v>
       </c>
       <c r="X61" t="n">
-        <v>467.5</v>
+        <v>956.375</v>
       </c>
       <c r="Y61" t="n">
-        <v>142.875</v>
+        <v>431.25</v>
       </c>
       <c r="Z61" t="n">
-        <v>178</v>
+        <v>43.25</v>
       </c>
       <c r="AA61" t="n">
-        <v>956.375</v>
+        <v>105.625</v>
       </c>
       <c r="AB61" t="n">
-        <v>431.25</v>
+        <v>618.375</v>
       </c>
       <c r="AC61" t="n">
-        <v>43.25</v>
+        <v>411</v>
       </c>
       <c r="AD61" t="n">
-        <v>105.625</v>
+        <v>1495</v>
       </c>
       <c r="AE61" t="n">
-        <v>618.375</v>
+        <v>346.625</v>
       </c>
       <c r="AF61" t="n">
-        <v>411</v>
+        <v>39.25</v>
       </c>
       <c r="AG61" t="n">
-        <v>1495</v>
+        <v>766.875</v>
       </c>
       <c r="AH61" t="n">
-        <v>346.625</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>39.25</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>766.875</v>
-      </c>
-      <c r="AK61" t="n">
         <v>322.875</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:34">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" t="n">
         <v>383.125</v>
@@ -7698,81 +7140,72 @@
         <v>7.5</v>
       </c>
       <c r="N62" t="n">
-        <v>2426.25</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2811.625</v>
+        <v>18.375</v>
       </c>
       <c r="P62" t="n">
-        <v>987.5</v>
+        <v>10.25</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>18.375</v>
+        <v>289.625</v>
       </c>
       <c r="S62" t="n">
-        <v>10.25</v>
+        <v>51.25</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>332.125</v>
       </c>
       <c r="U62" t="n">
-        <v>289.625</v>
+        <v>161.375</v>
       </c>
       <c r="V62" t="n">
-        <v>51.25</v>
+        <v>19</v>
       </c>
       <c r="W62" t="n">
-        <v>332.125</v>
+        <v>378.5</v>
       </c>
       <c r="X62" t="n">
-        <v>161.375</v>
+        <v>923.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>19</v>
+        <v>468.375</v>
       </c>
       <c r="Z62" t="n">
-        <v>378.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA62" t="n">
-        <v>923.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>468.375</v>
+        <v>300.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>18.5</v>
+        <v>0.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>300.5</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.5</v>
+        <v>442.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>91</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>442.5</v>
-      </c>
-      <c r="AK62" t="n">
         <v>228.25</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:34">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -7817,22 +7250,22 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -7850,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="n">
         <v>0</v>
@@ -7859,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
@@ -7868,24 +7301,15 @@
         <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>19</v>
+        <v>1.5</v>
       </c>
       <c r="AH63" t="n">
         <v>0</v>
       </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:34">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -7927,25 +7351,25 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1255.125</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>6.125</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>6.125</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -7972,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>163.75</v>
       </c>
       <c r="AE64" t="n">
         <v>0</v>
@@ -7981,24 +7405,15 @@
         <v>0</v>
       </c>
       <c r="AG64" t="n">
-        <v>163.75</v>
+        <v>0</v>
       </c>
       <c r="AH64" t="n">
         <v>0</v>
       </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:34">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -8085,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE65" t="n">
         <v>0</v>
@@ -8094,24 +7509,15 @@
         <v>0</v>
       </c>
       <c r="AG65" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH65" t="n">
         <v>0</v>
       </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:34">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -8150,28 +7556,28 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>857.375</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1829.5</v>
+        <v>28</v>
       </c>
       <c r="P66" t="n">
-        <v>417</v>
+        <v>21</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>28</v>
+        <v>22.25</v>
       </c>
       <c r="S66" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>22.25</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -8198,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AE66" t="n">
         <v>0</v>
@@ -8207,24 +7613,15 @@
         <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>217</v>
+        <v>9.75</v>
       </c>
       <c r="AH66" t="n">
         <v>0</v>
       </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:34">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" t="n">
         <v>5050.625</v>
@@ -8263,81 +7660,72 @@
         <v>2929.375</v>
       </c>
       <c r="N67" t="n">
-        <v>14994.375</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>15653.125</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>15254.5</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1869.25</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>2139.5</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>5026.375</v>
       </c>
       <c r="T67" t="n">
-        <v>1869.25</v>
+        <v>5702.375</v>
       </c>
       <c r="U67" t="n">
-        <v>2139.5</v>
+        <v>5306.5</v>
       </c>
       <c r="V67" t="n">
-        <v>5026.375</v>
+        <v>4804.75</v>
       </c>
       <c r="W67" t="n">
-        <v>5702.375</v>
+        <v>9665.25</v>
       </c>
       <c r="X67" t="n">
-        <v>5306.5</v>
+        <v>9750.375</v>
       </c>
       <c r="Y67" t="n">
-        <v>4804.75</v>
+        <v>9292.25</v>
       </c>
       <c r="Z67" t="n">
-        <v>9665.25</v>
+        <v>6853</v>
       </c>
       <c r="AA67" t="n">
-        <v>9750.375</v>
+        <v>7619.625</v>
       </c>
       <c r="AB67" t="n">
-        <v>9292.25</v>
+        <v>7413.625</v>
       </c>
       <c r="AC67" t="n">
-        <v>6853</v>
+        <v>1986.125</v>
       </c>
       <c r="AD67" t="n">
-        <v>7619.625</v>
+        <v>2858.125</v>
       </c>
       <c r="AE67" t="n">
-        <v>7413.625</v>
+        <v>2114.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>1986.125</v>
+        <v>10869.625</v>
       </c>
       <c r="AG67" t="n">
-        <v>2858.125</v>
+        <v>10436.875</v>
       </c>
       <c r="AH67" t="n">
-        <v>2114.5</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>10869.625</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>10436.875</v>
-      </c>
-      <c r="AK67" t="n">
         <v>11358.25</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:34">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -8424,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE68" t="n">
         <v>0</v>
@@ -8433,24 +7821,15 @@
         <v>0</v>
       </c>
       <c r="AG68" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AH68" t="n">
         <v>0</v>
       </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:34">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -8489,81 +7868,72 @@
         <v>16</v>
       </c>
       <c r="N69" t="n">
-        <v>64.875</v>
+        <v>3293.375</v>
       </c>
       <c r="O69" t="n">
-        <v>426.75</v>
+        <v>4408.875</v>
       </c>
       <c r="P69" t="n">
-        <v>17.25</v>
+        <v>4558.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>3293.375</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>4408.875</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>4558.5</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>252.375</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>106.25</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>207.625</v>
       </c>
       <c r="W69" t="n">
-        <v>252.375</v>
+        <v>184.5</v>
       </c>
       <c r="X69" t="n">
-        <v>106.25</v>
+        <v>1546</v>
       </c>
       <c r="Y69" t="n">
-        <v>207.625</v>
+        <v>471.375</v>
       </c>
       <c r="Z69" t="n">
-        <v>184.5</v>
+        <v>11148.125</v>
       </c>
       <c r="AA69" t="n">
-        <v>1546</v>
+        <v>12005.125</v>
       </c>
       <c r="AB69" t="n">
-        <v>471.375</v>
+        <v>12316.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>11148.125</v>
+        <v>920.125</v>
       </c>
       <c r="AD69" t="n">
-        <v>12005.125</v>
+        <v>2192.625</v>
       </c>
       <c r="AE69" t="n">
-        <v>12316.5</v>
+        <v>453.25</v>
       </c>
       <c r="AF69" t="n">
-        <v>920.125</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="n">
-        <v>2192.625</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>453.25</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK69" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:34">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -8614,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -8623,60 +7993,51 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0.875</v>
+        <v>2.25</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="X70" t="n">
-        <v>2.25</v>
+        <v>222</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.875</v>
+        <v>3.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="AB70" t="n">
-        <v>3.5</v>
+        <v>2.125</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
         <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AK70" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:34">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -8715,81 +8076,72 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1486.75</v>
+        <v>769.125</v>
       </c>
       <c r="O71" t="n">
-        <v>1903.375</v>
+        <v>1679.25</v>
       </c>
       <c r="P71" t="n">
-        <v>1163.5</v>
+        <v>5063.875</v>
       </c>
       <c r="Q71" t="n">
-        <v>769.125</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>1679.25</v>
+        <v>3</v>
       </c>
       <c r="S71" t="n">
-        <v>5063.875</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="U71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
         <v>3</v>
       </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="X71" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0</v>
-      </c>
       <c r="AA71" t="n">
-        <v>18.75</v>
+        <v>141.875</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>669.75</v>
       </c>
       <c r="AC71" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="AD71" t="n">
-        <v>141.875</v>
+        <v>435.625</v>
       </c>
       <c r="AE71" t="n">
-        <v>669.75</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.25</v>
+        <v>671.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>435.625</v>
+        <v>1303.75</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>671.5</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1303.75</v>
-      </c>
-      <c r="AK71" t="n">
         <v>1071.375</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:34">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -8828,81 +8180,72 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>238.125</v>
+        <v>100.625</v>
       </c>
       <c r="P72" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>100.625</v>
+        <v>86.875</v>
       </c>
       <c r="S72" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>7751.125</v>
       </c>
       <c r="U72" t="n">
-        <v>86.875</v>
+        <v>7473</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>7337.375</v>
       </c>
       <c r="W72" t="n">
-        <v>7751.125</v>
+        <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>7473</v>
+        <v>216</v>
       </c>
       <c r="Y72" t="n">
-        <v>7337.375</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>13329.75</v>
       </c>
       <c r="AA72" t="n">
-        <v>216</v>
+        <v>13822.75</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>13017.875</v>
       </c>
       <c r="AC72" t="n">
-        <v>13329.75</v>
+        <v>4.25</v>
       </c>
       <c r="AD72" t="n">
-        <v>13822.75</v>
+        <v>768</v>
       </c>
       <c r="AE72" t="n">
-        <v>13017.875</v>
+        <v>0.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
-        <v>768</v>
+        <v>33.25</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="AK72" t="n">
         <v>2.625</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:34">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B73" t="n">
         <v>6451.875</v>
@@ -8941,81 +8284,72 @@
         <v>4065.75</v>
       </c>
       <c r="N73" t="n">
-        <v>23.25</v>
+        <v>5.25</v>
       </c>
       <c r="O73" t="n">
-        <v>368.5</v>
+        <v>526.25</v>
       </c>
       <c r="P73" t="n">
-        <v>173.5</v>
+        <v>395</v>
       </c>
       <c r="Q73" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>526.25</v>
+        <v>447</v>
       </c>
       <c r="S73" t="n">
-        <v>395</v>
+        <v>0.75</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="U73" t="n">
-        <v>447</v>
+        <v>70.25</v>
       </c>
       <c r="V73" t="n">
-        <v>0.75</v>
+        <v>21.875</v>
       </c>
       <c r="W73" t="n">
-        <v>66.5</v>
+        <v>8018.5</v>
       </c>
       <c r="X73" t="n">
-        <v>70.25</v>
+        <v>8901.875</v>
       </c>
       <c r="Y73" t="n">
-        <v>21.875</v>
+        <v>7581</v>
       </c>
       <c r="Z73" t="n">
-        <v>8018.5</v>
+        <v>12850.75</v>
       </c>
       <c r="AA73" t="n">
-        <v>8901.875</v>
+        <v>13265.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>7581</v>
+        <v>14167.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>12850.75</v>
+        <v>10387.25</v>
       </c>
       <c r="AD73" t="n">
-        <v>13265.5</v>
+        <v>11892</v>
       </c>
       <c r="AE73" t="n">
-        <v>14167.5</v>
+        <v>10507</v>
       </c>
       <c r="AF73" t="n">
-        <v>10387.25</v>
+        <v>9.25</v>
       </c>
       <c r="AG73" t="n">
-        <v>11892</v>
+        <v>456.75</v>
       </c>
       <c r="AH73" t="n">
-        <v>10507</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>456.75</v>
-      </c>
-      <c r="AK73" t="n">
         <v>78.375</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:34">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -9057,78 +8391,69 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>67.125</v>
+        <v>0.875</v>
       </c>
       <c r="P74" t="n">
-        <v>122.625</v>
+        <v>14.5</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0.875</v>
+        <v>119.25</v>
       </c>
       <c r="S74" t="n">
-        <v>14.5</v>
+        <v>4.5</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U74" t="n">
-        <v>119.25</v>
+        <v>168.875</v>
       </c>
       <c r="V74" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>168.875</v>
+        <v>79.25</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z74" t="n">
         <v>0</v>
       </c>
       <c r="AA74" t="n">
-        <v>79.25</v>
+        <v>0</v>
       </c>
       <c r="AB74" t="n">
-        <v>6.5</v>
+        <v>37.25</v>
       </c>
       <c r="AC74" t="n">
         <v>0</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>450.625</v>
       </c>
       <c r="AE74" t="n">
-        <v>37.25</v>
+        <v>0</v>
       </c>
       <c r="AF74" t="n">
         <v>0</v>
       </c>
       <c r="AG74" t="n">
-        <v>450.625</v>
+        <v>368.625</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>368.625</v>
-      </c>
-      <c r="AK74" t="n">
         <v>15.75</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:34">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B75" t="n">
         <v>1744</v>
@@ -9167,81 +8492,72 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>10948.75</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>11697.875</v>
+        <v>0.25</v>
       </c>
       <c r="P75" t="n">
-        <v>10764.125</v>
+        <v>2</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1486.375</v>
       </c>
       <c r="R75" t="n">
+        <v>605.125</v>
+      </c>
+      <c r="S75" t="n">
+        <v>78.375</v>
+      </c>
+      <c r="T75" t="n">
+        <v>154.625</v>
+      </c>
+      <c r="U75" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
         <v>0.25</v>
       </c>
-      <c r="S75" t="n">
-        <v>2</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1486.375</v>
-      </c>
-      <c r="U75" t="n">
-        <v>605.125</v>
-      </c>
-      <c r="V75" t="n">
-        <v>78.375</v>
-      </c>
-      <c r="W75" t="n">
-        <v>154.625</v>
-      </c>
       <c r="X75" t="n">
-        <v>39.75</v>
+        <v>417</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.25</v>
+        <v>9242</v>
       </c>
       <c r="AA75" t="n">
-        <v>417</v>
+        <v>9967.25</v>
       </c>
       <c r="AB75" t="n">
-        <v>65.5</v>
+        <v>10296.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>9242</v>
+        <v>198.75</v>
       </c>
       <c r="AD75" t="n">
-        <v>9967.25</v>
+        <v>1090</v>
       </c>
       <c r="AE75" t="n">
-        <v>10296.5</v>
+        <v>102.375</v>
       </c>
       <c r="AF75" t="n">
-        <v>198.75</v>
+        <v>5992.125</v>
       </c>
       <c r="AG75" t="n">
-        <v>1090</v>
+        <v>7216.625</v>
       </c>
       <c r="AH75" t="n">
-        <v>102.375</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>5992.125</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>7216.625</v>
-      </c>
-      <c r="AK75" t="n">
         <v>6341.125</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:34">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -9280,22 +8596,22 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>0.75</v>
+        <v>121.375</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>2864.875</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>121.375</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>2864.875</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
@@ -9313,48 +8629,39 @@
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>7668.875</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>8272.75</v>
       </c>
       <c r="AB76" t="n">
-        <v>2.75</v>
+        <v>8506.25</v>
       </c>
       <c r="AC76" t="n">
-        <v>7668.875</v>
+        <v>24.125</v>
       </c>
       <c r="AD76" t="n">
-        <v>8272.75</v>
+        <v>595.75</v>
       </c>
       <c r="AE76" t="n">
-        <v>8506.25</v>
+        <v>27.25</v>
       </c>
       <c r="AF76" t="n">
-        <v>24.125</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>595.75</v>
+        <v>1.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK76" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:34">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -9399,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -9408,66 +8715,57 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
         <v>0.75</v>
       </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0</v>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>17.75</v>
-      </c>
       <c r="AH77" t="n">
         <v>0</v>
       </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:34">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -9509,34 +8807,34 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>291.25</v>
+        <v>191.25</v>
       </c>
       <c r="P78" t="n">
-        <v>158.75</v>
+        <v>50.75</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>191.25</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>3.875</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>3.875</v>
+        <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
         <v>0</v>
@@ -9554,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AE78" t="n">
         <v>0</v>
@@ -9563,24 +8861,15 @@
         <v>0</v>
       </c>
       <c r="AG78" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AH78" t="n">
         <v>0</v>
       </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:34">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" t="n">
         <v>8130.875</v>
@@ -9619,81 +8908,72 @@
         <v>824.875</v>
       </c>
       <c r="N79" t="n">
-        <v>9735</v>
+        <v>14101</v>
       </c>
       <c r="O79" t="n">
-        <v>12915.875</v>
+        <v>14785.875</v>
       </c>
       <c r="P79" t="n">
-        <v>6666.75</v>
+        <v>14681</v>
       </c>
       <c r="Q79" t="n">
-        <v>14101</v>
+        <v>9450.125</v>
       </c>
       <c r="R79" t="n">
-        <v>14785.875</v>
+        <v>9613.125</v>
       </c>
       <c r="S79" t="n">
-        <v>14681</v>
+        <v>8757.25</v>
       </c>
       <c r="T79" t="n">
-        <v>9450.125</v>
+        <v>5761.25</v>
       </c>
       <c r="U79" t="n">
-        <v>9613.125</v>
+        <v>5906.125</v>
       </c>
       <c r="V79" t="n">
-        <v>8757.25</v>
+        <v>5422.25</v>
       </c>
       <c r="W79" t="n">
-        <v>5761.25</v>
+        <v>8337.25</v>
       </c>
       <c r="X79" t="n">
-        <v>5906.125</v>
+        <v>9025.875</v>
       </c>
       <c r="Y79" t="n">
-        <v>5422.25</v>
+        <v>8570.25</v>
       </c>
       <c r="Z79" t="n">
-        <v>8337.25</v>
+        <v>14862.375</v>
       </c>
       <c r="AA79" t="n">
-        <v>9025.875</v>
+        <v>14907.375</v>
       </c>
       <c r="AB79" t="n">
-        <v>8570.25</v>
+        <v>15170.25</v>
       </c>
       <c r="AC79" t="n">
-        <v>14862.375</v>
+        <v>8941.75</v>
       </c>
       <c r="AD79" t="n">
-        <v>14907.375</v>
+        <v>10455.25</v>
       </c>
       <c r="AE79" t="n">
-        <v>15170.25</v>
+        <v>9470.625</v>
       </c>
       <c r="AF79" t="n">
-        <v>8941.75</v>
+        <v>9648.75</v>
       </c>
       <c r="AG79" t="n">
-        <v>10455.25</v>
+        <v>10217</v>
       </c>
       <c r="AH79" t="n">
-        <v>9470.625</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>9648.75</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>10217</v>
-      </c>
-      <c r="AK79" t="n">
         <v>9656.25</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:34">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -9735,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>4.875</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -9792,21 +9072,12 @@
         <v>0</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK80" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:34">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -9848,25 +9119,25 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0.25</v>
+        <v>9.875</v>
       </c>
       <c r="P81" t="n">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>9.875</v>
+        <v>20.5</v>
       </c>
       <c r="S81" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -9875,51 +9146,42 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y81" t="n">
         <v>0</v>
       </c>
       <c r="Z81" t="n">
-        <v>0</v>
+        <v>14113.125</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.75</v>
+        <v>14243.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>14315.125</v>
       </c>
       <c r="AC81" t="n">
-        <v>14113.125</v>
+        <v>0</v>
       </c>
       <c r="AD81" t="n">
-        <v>14243.5</v>
+        <v>359</v>
       </c>
       <c r="AE81" t="n">
-        <v>14315.125</v>
+        <v>0</v>
       </c>
       <c r="AF81" t="n">
         <v>0</v>
       </c>
       <c r="AG81" t="n">
-        <v>359</v>
+        <v>2.25</v>
       </c>
       <c r="AH81" t="n">
         <v>0</v>
       </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:34">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B82" t="n">
         <v>54.125</v>
@@ -9958,81 +9220,72 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1237.375</v>
+        <v>3.5</v>
       </c>
       <c r="P82" t="n">
-        <v>399.125</v>
+        <v>4.75</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>3.5</v>
+        <v>127.25</v>
       </c>
       <c r="S82" t="n">
-        <v>4.75</v>
+        <v>6.875</v>
       </c>
       <c r="T82" t="n">
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>127.25</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>6.875</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>609.375</v>
       </c>
       <c r="Y82" t="n">
         <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>1</v>
+        <v>37.625</v>
       </c>
       <c r="AA82" t="n">
-        <v>609.375</v>
+        <v>44.25</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>653.875</v>
       </c>
       <c r="AC82" t="n">
-        <v>37.625</v>
+        <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>44.25</v>
+        <v>611.75</v>
       </c>
       <c r="AE82" t="n">
-        <v>653.875</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
         <v>0</v>
       </c>
       <c r="AG82" t="n">
-        <v>611.75</v>
+        <v>39.75</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>39.75</v>
-      </c>
-      <c r="AK82" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:34">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B83" t="n">
         <v>250.375</v>
@@ -10071,81 +9324,72 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>3355.875</v>
+        <v>317.5</v>
       </c>
       <c r="O83" t="n">
-        <v>4304</v>
+        <v>1246.375</v>
       </c>
       <c r="P83" t="n">
-        <v>2376.625</v>
+        <v>1031.875</v>
       </c>
       <c r="Q83" t="n">
-        <v>317.5</v>
+        <v>7.125</v>
       </c>
       <c r="R83" t="n">
-        <v>1246.375</v>
+        <v>352.125</v>
       </c>
       <c r="S83" t="n">
-        <v>1031.875</v>
+        <v>2.75</v>
       </c>
       <c r="T83" t="n">
-        <v>7.125</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>352.125</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="Y83" t="n">
         <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>11.375</v>
+        <v>0</v>
       </c>
       <c r="AA83" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>39.375</v>
       </c>
       <c r="AC83" t="n">
         <v>0</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="AE83" t="n">
-        <v>39.375</v>
+        <v>0</v>
       </c>
       <c r="AF83" t="n">
-        <v>0</v>
+        <v>2.625</v>
       </c>
       <c r="AG83" t="n">
-        <v>652</v>
+        <v>352.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>352.5</v>
-      </c>
-      <c r="AK83" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:34">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -10187,78 +9431,69 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="P84" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>95</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="n">
         <v>11.75</v>
       </c>
-      <c r="P84" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="S84" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="T84" t="n">
-        <v>0</v>
-      </c>
-      <c r="U84" t="n">
-        <v>95</v>
-      </c>
-      <c r="V84" t="n">
-        <v>0</v>
-      </c>
-      <c r="W84" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X84" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>0</v>
-      </c>
       <c r="AC84" t="n">
         <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>1025.875</v>
       </c>
       <c r="AE84" t="n">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
         <v>0</v>
       </c>
       <c r="AG84" t="n">
-        <v>1025.875</v>
+        <v>46</v>
       </c>
       <c r="AH84" t="n">
         <v>0</v>
       </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:34">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B85" t="n">
         <v>2.75</v>
@@ -10300,78 +9535,69 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>127.5</v>
+        <v>87.875</v>
       </c>
       <c r="P85" t="n">
-        <v>88.25</v>
+        <v>63.375</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R85" t="n">
-        <v>87.875</v>
+        <v>1007.375</v>
       </c>
       <c r="S85" t="n">
-        <v>63.375</v>
+        <v>25.625</v>
       </c>
       <c r="T85" t="n">
+        <v>90.25</v>
+      </c>
+      <c r="U85" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>14</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1271.75</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="Z85" t="n">
         <v>0.25</v>
       </c>
-      <c r="U85" t="n">
-        <v>1007.375</v>
-      </c>
-      <c r="V85" t="n">
-        <v>25.625</v>
-      </c>
-      <c r="W85" t="n">
-        <v>90.25</v>
-      </c>
-      <c r="X85" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="Y85" t="n">
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>52.625</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="AE85" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z85" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>1271.75</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>280.5</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>52.625</v>
-      </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AG85" t="n">
-        <v>1756.5</v>
+        <v>259.375</v>
       </c>
       <c r="AH85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>259.375</v>
-      </c>
-      <c r="AK85" t="n">
         <v>34.75</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:34">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -10410,81 +9636,72 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O86" t="n">
-        <v>482.625</v>
+        <v>940.125</v>
       </c>
       <c r="P86" t="n">
-        <v>397.625</v>
+        <v>830.125</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="R86" t="n">
-        <v>940.125</v>
+        <v>1187.375</v>
       </c>
       <c r="S86" t="n">
-        <v>830.125</v>
+        <v>101.625</v>
       </c>
       <c r="T86" t="n">
-        <v>8.5</v>
+        <v>291.375</v>
       </c>
       <c r="U86" t="n">
-        <v>1187.375</v>
+        <v>595.75</v>
       </c>
       <c r="V86" t="n">
-        <v>101.625</v>
+        <v>1.25</v>
       </c>
       <c r="W86" t="n">
-        <v>291.375</v>
+        <v>8</v>
       </c>
       <c r="X86" t="n">
-        <v>595.75</v>
+        <v>733.625</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.25</v>
+        <v>140.75</v>
       </c>
       <c r="Z86" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA86" t="n">
-        <v>733.625</v>
+        <v>19.25</v>
       </c>
       <c r="AB86" t="n">
-        <v>140.75</v>
+        <v>985.375</v>
       </c>
       <c r="AC86" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AD86" t="n">
-        <v>19.25</v>
+        <v>844.25</v>
       </c>
       <c r="AE86" t="n">
-        <v>985.375</v>
+        <v>5</v>
       </c>
       <c r="AF86" t="n">
         <v>0.25</v>
       </c>
       <c r="AG86" t="n">
-        <v>844.25</v>
+        <v>1144.875</v>
       </c>
       <c r="AH86" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>1144.875</v>
-      </c>
-      <c r="AK86" t="n">
         <v>572.25</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:34">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B87" t="n">
         <v>137.125</v>
@@ -10523,81 +9740,72 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>38.25</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1842.25</v>
+        <v>129.75</v>
       </c>
       <c r="P87" t="n">
-        <v>1080.375</v>
+        <v>65.125</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>129.75</v>
+        <v>256.5</v>
       </c>
       <c r="S87" t="n">
-        <v>65.125</v>
+        <v>22.75</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U87" t="n">
-        <v>256.5</v>
+        <v>597.625</v>
       </c>
       <c r="V87" t="n">
-        <v>22.75</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>597.625</v>
+        <v>17.25</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>17.25</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>7.25</v>
+        <v>320.5</v>
       </c>
       <c r="AC87" t="n">
         <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="AE87" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
         <v>0</v>
       </c>
       <c r="AG87" t="n">
-        <v>656</v>
+        <v>867.25</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>867.25</v>
-      </c>
-      <c r="AK87" t="n">
         <v>343.25</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:34">
       <c r="A88" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B88" t="n">
         <v>0.75</v>
@@ -10636,81 +9844,72 @@
         <v>1254</v>
       </c>
       <c r="N88" t="n">
-        <v>0.75</v>
+        <v>6105.25</v>
       </c>
       <c r="O88" t="n">
-        <v>597.375</v>
+        <v>8262.375</v>
       </c>
       <c r="P88" t="n">
-        <v>182.125</v>
+        <v>10339.625</v>
       </c>
       <c r="Q88" t="n">
-        <v>6105.25</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>8262.375</v>
+        <v>88.75</v>
       </c>
       <c r="S88" t="n">
-        <v>10339.625</v>
+        <v>10</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>2654.625</v>
       </c>
       <c r="U88" t="n">
-        <v>88.75</v>
+        <v>2864.875</v>
       </c>
       <c r="V88" t="n">
-        <v>10</v>
+        <v>1993.125</v>
       </c>
       <c r="W88" t="n">
-        <v>2654.625</v>
+        <v>1.25</v>
       </c>
       <c r="X88" t="n">
-        <v>2864.875</v>
+        <v>684.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>1993.125</v>
+        <v>953</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.25</v>
+        <v>14246.125</v>
       </c>
       <c r="AA88" t="n">
-        <v>684.5</v>
+        <v>14654.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>953</v>
+        <v>15106</v>
       </c>
       <c r="AC88" t="n">
-        <v>14246.125</v>
+        <v>255.25</v>
       </c>
       <c r="AD88" t="n">
-        <v>14654.5</v>
+        <v>1473.25</v>
       </c>
       <c r="AE88" t="n">
-        <v>15106</v>
+        <v>295</v>
       </c>
       <c r="AF88" t="n">
-        <v>255.25</v>
+        <v>0</v>
       </c>
       <c r="AG88" t="n">
-        <v>1473.25</v>
+        <v>382.75</v>
       </c>
       <c r="AH88" t="n">
-        <v>295</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>382.75</v>
-      </c>
-      <c r="AK88" t="n">
         <v>76.625</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:34">
       <c r="A89" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B89" t="n">
         <v>446</v>
@@ -10749,81 +9948,72 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>5616.875</v>
+        <v>43.625</v>
       </c>
       <c r="O89" t="n">
-        <v>6622.375</v>
+        <v>1020</v>
       </c>
       <c r="P89" t="n">
-        <v>4610.5</v>
+        <v>589.625</v>
       </c>
       <c r="Q89" t="n">
-        <v>43.625</v>
+        <v>10.375</v>
       </c>
       <c r="R89" t="n">
-        <v>1020</v>
+        <v>1640.5</v>
       </c>
       <c r="S89" t="n">
-        <v>589.625</v>
+        <v>810.125</v>
       </c>
       <c r="T89" t="n">
-        <v>10.375</v>
+        <v>304.5</v>
       </c>
       <c r="U89" t="n">
-        <v>1640.5</v>
+        <v>205.5</v>
       </c>
       <c r="V89" t="n">
-        <v>810.125</v>
+        <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>304.5</v>
+        <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>205.5</v>
+        <v>345.375</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>129.375</v>
       </c>
       <c r="Z89" t="n">
-        <v>0</v>
+        <v>8424.25</v>
       </c>
       <c r="AA89" t="n">
-        <v>345.375</v>
+        <v>9399.125</v>
       </c>
       <c r="AB89" t="n">
-        <v>129.375</v>
+        <v>9402.625</v>
       </c>
       <c r="AC89" t="n">
-        <v>8424.25</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>9399.125</v>
+        <v>500.25</v>
       </c>
       <c r="AE89" t="n">
-        <v>9402.625</v>
+        <v>0.75</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>1011.625</v>
       </c>
       <c r="AG89" t="n">
-        <v>500.25</v>
+        <v>1088.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>1011.625</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>1088.5</v>
-      </c>
-      <c r="AK89" t="n">
         <v>872.25</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:34">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -10865,78 +10055,69 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>62.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="S90" t="n">
-        <v>5.75</v>
+        <v>4.25</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>8.5</v>
+        <v>62.875</v>
       </c>
       <c r="V90" t="n">
-        <v>4.25</v>
+        <v>0.375</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>62.875</v>
+        <v>24.375</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.375</v>
+        <v>4.5</v>
       </c>
       <c r="Z90" t="n">
         <v>0</v>
       </c>
       <c r="AA90" t="n">
-        <v>24.375</v>
+        <v>0</v>
       </c>
       <c r="AB90" t="n">
-        <v>4.5</v>
+        <v>8.125</v>
       </c>
       <c r="AC90" t="n">
         <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>385.75</v>
       </c>
       <c r="AE90" t="n">
-        <v>8.125</v>
+        <v>0</v>
       </c>
       <c r="AF90" t="n">
         <v>0</v>
       </c>
       <c r="AG90" t="n">
-        <v>385.75</v>
+        <v>184.5</v>
       </c>
       <c r="AH90" t="n">
         <v>0</v>
       </c>
-      <c r="AI90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:34">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -10978,78 +10159,69 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>50</v>
+        <v>6.25</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="S91" t="n">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="T91" t="n">
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>11.5</v>
+        <v>51.375</v>
       </c>
       <c r="V91" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>51.375</v>
+        <v>127.25</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z91" t="n">
         <v>0</v>
       </c>
       <c r="AA91" t="n">
-        <v>127.25</v>
+        <v>0</v>
       </c>
       <c r="AB91" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="AC91" t="n">
         <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>492.75</v>
       </c>
       <c r="AE91" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AF91" t="n">
         <v>0</v>
       </c>
       <c r="AG91" t="n">
-        <v>492.75</v>
+        <v>110.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>110.5</v>
-      </c>
-      <c r="AK91" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:34">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -11094,13 +10266,13 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>117.375</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -11109,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>117.375</v>
+        <v>1.25</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -11118,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>1.25</v>
+        <v>297</v>
       </c>
       <c r="Y92" t="n">
         <v>0</v>
@@ -11127,42 +10299,33 @@
         <v>0</v>
       </c>
       <c r="AA92" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="AC92" t="n">
         <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>1354.25</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.875</v>
+        <v>0</v>
       </c>
       <c r="AF92" t="n">
         <v>0</v>
       </c>
       <c r="AG92" t="n">
-        <v>1354.25</v>
+        <v>12.75</v>
       </c>
       <c r="AH92" t="n">
         <v>0</v>
       </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:34">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -11204,34 +10367,34 @@
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>6.25</v>
+        <v>0.75</v>
       </c>
       <c r="P93" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>0.75</v>
+        <v>238.25</v>
       </c>
       <c r="S93" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U93" t="n">
-        <v>238.25</v>
+        <v>51</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="n">
         <v>0</v>
@@ -11240,42 +10403,33 @@
         <v>0</v>
       </c>
       <c r="AA93" t="n">
-        <v>301</v>
+        <v>0.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC93" t="n">
         <v>0</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.5</v>
+        <v>1442.875</v>
       </c>
       <c r="AE93" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AF93" t="n">
         <v>0</v>
       </c>
       <c r="AG93" t="n">
-        <v>1442.875</v>
+        <v>13</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK93" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:34">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B94" t="n">
         <v>3561</v>
@@ -11314,81 +10468,72 @@
         <v>263.125</v>
       </c>
       <c r="N94" t="n">
-        <v>793.75</v>
+        <v>1306</v>
       </c>
       <c r="O94" t="n">
-        <v>2034.5</v>
+        <v>2422</v>
       </c>
       <c r="P94" t="n">
-        <v>1612.5</v>
+        <v>2500.75</v>
       </c>
       <c r="Q94" t="n">
-        <v>1306</v>
+        <v>370.875</v>
       </c>
       <c r="R94" t="n">
-        <v>2422</v>
+        <v>5320.5</v>
       </c>
       <c r="S94" t="n">
-        <v>2500.75</v>
+        <v>3322</v>
       </c>
       <c r="T94" t="n">
-        <v>370.875</v>
+        <v>2190.125</v>
       </c>
       <c r="U94" t="n">
-        <v>5320.5</v>
+        <v>1985.375</v>
       </c>
       <c r="V94" t="n">
-        <v>3322</v>
+        <v>736</v>
       </c>
       <c r="W94" t="n">
-        <v>2190.125</v>
+        <v>4088.625</v>
       </c>
       <c r="X94" t="n">
-        <v>1985.375</v>
+        <v>5329.625</v>
       </c>
       <c r="Y94" t="n">
-        <v>736</v>
+        <v>4037.75</v>
       </c>
       <c r="Z94" t="n">
-        <v>4088.625</v>
+        <v>166.875</v>
       </c>
       <c r="AA94" t="n">
-        <v>5329.625</v>
+        <v>210.625</v>
       </c>
       <c r="AB94" t="n">
-        <v>4037.75</v>
+        <v>1383.125</v>
       </c>
       <c r="AC94" t="n">
-        <v>166.875</v>
+        <v>1128.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>210.625</v>
+        <v>3739.25</v>
       </c>
       <c r="AE94" t="n">
-        <v>1383.125</v>
+        <v>808.25</v>
       </c>
       <c r="AF94" t="n">
-        <v>1128.5</v>
+        <v>472.375</v>
       </c>
       <c r="AG94" t="n">
-        <v>3739.25</v>
+        <v>2563</v>
       </c>
       <c r="AH94" t="n">
-        <v>808.25</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>472.375</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>2563</v>
-      </c>
-      <c r="AK94" t="n">
         <v>2274.625</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:34">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -11430,34 +10575,34 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>194.25</v>
+        <v>89.625</v>
       </c>
       <c r="P95" t="n">
-        <v>117</v>
+        <v>61.25</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>89.625</v>
+        <v>262.25</v>
       </c>
       <c r="S95" t="n">
-        <v>61.25</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="U95" t="n">
-        <v>262.25</v>
+        <v>91.75</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
       </c>
       <c r="W95" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>91.75</v>
+        <v>374.25</v>
       </c>
       <c r="Y95" t="n">
         <v>0</v>
@@ -11466,42 +10611,33 @@
         <v>0</v>
       </c>
       <c r="AA95" t="n">
-        <v>374.25</v>
+        <v>0</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="AC95" t="n">
         <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>1269.375</v>
       </c>
       <c r="AE95" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AF95" t="n">
         <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>1269.375</v>
+        <v>337</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>337</v>
-      </c>
-      <c r="AK95" t="n">
         <v>18.375</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:34">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -11540,37 +10676,37 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>32.25</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>747.75</v>
+        <v>321.625</v>
       </c>
       <c r="P96" t="n">
-        <v>364.125</v>
+        <v>233.625</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R96" t="n">
-        <v>321.625</v>
+        <v>795.75</v>
       </c>
       <c r="S96" t="n">
-        <v>233.625</v>
+        <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>11</v>
+        <v>231.5</v>
       </c>
       <c r="U96" t="n">
-        <v>795.75</v>
+        <v>74.5</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W96" t="n">
-        <v>231.5</v>
+        <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>74.5</v>
+        <v>899.25</v>
       </c>
       <c r="Y96" t="n">
         <v>0.25</v>
@@ -11579,42 +10715,33 @@
         <v>0</v>
       </c>
       <c r="AA96" t="n">
-        <v>899.25</v>
+        <v>0</v>
       </c>
       <c r="AB96" t="n">
-        <v>0.25</v>
+        <v>287.375</v>
       </c>
       <c r="AC96" t="n">
         <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>1627.875</v>
       </c>
       <c r="AE96" t="n">
-        <v>287.375</v>
+        <v>0</v>
       </c>
       <c r="AF96" t="n">
         <v>0</v>
       </c>
       <c r="AG96" t="n">
-        <v>1627.875</v>
+        <v>344.375</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>344.375</v>
-      </c>
-      <c r="AK96" t="n">
         <v>129.875</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:34">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B97" t="n">
         <v>9</v>
@@ -11653,75 +10780,66 @@
         <v>0.75</v>
       </c>
       <c r="N97" t="n">
-        <v>10.5</v>
+        <v>3.75</v>
       </c>
       <c r="O97" t="n">
-        <v>932.375</v>
+        <v>834.5</v>
       </c>
       <c r="P97" t="n">
-        <v>581.875</v>
+        <v>601.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>3.75</v>
+        <v>36.5</v>
       </c>
       <c r="R97" t="n">
-        <v>834.5</v>
+        <v>1047.375</v>
       </c>
       <c r="S97" t="n">
-        <v>601.5</v>
+        <v>109.375</v>
       </c>
       <c r="T97" t="n">
-        <v>36.5</v>
+        <v>1050</v>
       </c>
       <c r="U97" t="n">
-        <v>1047.375</v>
+        <v>566.625</v>
       </c>
       <c r="V97" t="n">
-        <v>109.375</v>
+        <v>43.875</v>
       </c>
       <c r="W97" t="n">
-        <v>1050</v>
+        <v>23</v>
       </c>
       <c r="X97" t="n">
-        <v>566.625</v>
+        <v>1219.125</v>
       </c>
       <c r="Y97" t="n">
-        <v>43.875</v>
+        <v>238.875</v>
       </c>
       <c r="Z97" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>1219.125</v>
+        <v>39</v>
       </c>
       <c r="AB97" t="n">
-        <v>238.875</v>
+        <v>899.25</v>
       </c>
       <c r="AC97" t="n">
-        <v>9.5</v>
+        <v>250.625</v>
       </c>
       <c r="AD97" t="n">
-        <v>39</v>
+        <v>1402.875</v>
       </c>
       <c r="AE97" t="n">
-        <v>899.25</v>
+        <v>14.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>250.625</v>
+        <v>4.125</v>
       </c>
       <c r="AG97" t="n">
-        <v>1402.875</v>
+        <v>1095.75</v>
       </c>
       <c r="AH97" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>1095.75</v>
-      </c>
-      <c r="AK97" t="n">
         <v>735.875</v>
       </c>
     </row>

--- a/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 2-A.xlsx
+++ b/BiologAnalysis/output/AUC/rsol_time_WT_AUCsPM 2-A.xlsx
@@ -17,6 +17,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
+    <t>CFBP2957 replicate 2</t>
+  </si>
+  <si>
+    <t>CFBP2957 replicate 1</t>
+  </si>
+  <si>
+    <t>CFBP2957 replicate 3</t>
+  </si>
+  <si>
     <t>BA7 replicate 1</t>
   </si>
   <si>
@@ -33,15 +42,6 @@
   </si>
   <si>
     <t>BDBR229 replicate 3</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 2</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 1</t>
-  </si>
-  <si>
-    <t>CFBP2957 replicate 3</t>
   </si>
   <si>
     <t>GMI1000 replicate 1</t>
@@ -968,31 +968,31 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>5.25</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>109.375</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>9.75</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>9.25</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1072,25 +1072,25 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>24.875</v>
       </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>66.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>36</v>
       </c>
       <c r="B5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>31.125</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>10.75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>4.25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1384,31 +1384,31 @@
         <v>38</v>
       </c>
       <c r="B7" t="n">
+        <v>2025.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1886.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2044.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>178.375</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="n">
         <v>100.625</v>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>159</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>2025.75</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1886.75</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2044.25</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>269.875</v>
@@ -1491,17 +1491,17 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.5</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1592,31 +1592,31 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>1.25</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
         <v>273.75</v>
       </c>
-      <c r="D9" t="n">
+      <c r="G9" t="n">
         <v>60</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>0.25</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>42.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1696,31 +1696,31 @@
         <v>41</v>
       </c>
       <c r="B10" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.875</v>
+      </c>
+      <c r="E10" t="n">
         <v>2581.75</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
         <v>1667.375</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>2726.375</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>65.25</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>325.125</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>91.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>76.25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>25.875</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -1800,31 +1800,31 @@
         <v>42</v>
       </c>
       <c r="B11" t="n">
+        <v>162</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E11" t="n">
         <v>7884.875</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>7769</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
         <v>7505.375</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>12.875</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>1214</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>21.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>162</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1904,31 +1904,31 @@
         <v>43</v>
       </c>
       <c r="B12" t="n">
+        <v>509.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="E12" t="n">
         <v>109</v>
       </c>
-      <c r="C12" t="n">
+      <c r="F12" t="n">
         <v>578.75</v>
       </c>
-      <c r="D12" t="n">
+      <c r="G12" t="n">
         <v>70.5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>90.75</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>302.25</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>39.25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>509.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>59.375</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
         <v>44</v>
       </c>
       <c r="B13" t="n">
+        <v>7768.875</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7422.875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7023.25</v>
+      </c>
+      <c r="E13" t="n">
         <v>5991.625</v>
       </c>
-      <c r="C13" t="n">
+      <c r="F13" t="n">
         <v>10924</v>
       </c>
-      <c r="D13" t="n">
+      <c r="G13" t="n">
         <v>8006</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>1842</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>1695.375</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>3300.75</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7768.875</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7422.875</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7023.25</v>
       </c>
       <c r="K13" t="n">
         <v>5441.625</v>
@@ -2112,31 +2112,31 @@
         <v>45</v>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>34.125</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
         <v>139.375</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>2.75</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>10.5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>98.875</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>13.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12.125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -2216,31 +2216,31 @@
         <v>46</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3.625</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.25</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.25</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>0.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2427,25 +2427,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>155.375</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>6.25</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2528,28 +2528,28 @@
         <v>49</v>
       </c>
       <c r="B18" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="F18" t="n">
         <v>117.875</v>
       </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
         <v>0.25</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>18.25</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2944,31 +2944,31 @@
         <v>53</v>
       </c>
       <c r="B22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="n">
+      <c r="F22" t="n">
         <v>262.125</v>
       </c>
-      <c r="D22" t="n">
+      <c r="G22" t="n">
         <v>4.5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>98.75</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>264.25</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>78.625</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3051,25 +3051,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>142.25</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>26.75</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3152,31 +3152,31 @@
         <v>55</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28</v>
+      </c>
+      <c r="E24" t="n">
         <v>2.75</v>
       </c>
-      <c r="C24" t="n">
+      <c r="F24" t="n">
         <v>50.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="G24" t="n">
         <v>1.75</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>0.75</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>30.875</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>4.75</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>28</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -3256,31 +3256,31 @@
         <v>56</v>
       </c>
       <c r="B25" t="n">
+        <v>235.875</v>
+      </c>
+      <c r="C25" t="n">
+        <v>126.125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="E25" t="n">
         <v>173.625</v>
       </c>
-      <c r="C25" t="n">
+      <c r="F25" t="n">
         <v>884.5</v>
       </c>
-      <c r="D25" t="n">
+      <c r="G25" t="n">
         <v>50.625</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>10.25</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>500.75</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>14.375</v>
-      </c>
-      <c r="H25" t="n">
-        <v>235.875</v>
-      </c>
-      <c r="I25" t="n">
-        <v>126.125</v>
-      </c>
-      <c r="J25" t="n">
-        <v>108.75</v>
       </c>
       <c r="K25" t="n">
         <v>12</v>
@@ -3363,28 +3363,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>436</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>398.875</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
         <v>0.375</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -3779,16 +3779,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -4195,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.25</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -4299,25 +4299,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>11.25</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>7</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -4400,28 +4400,28 @@
         <v>67</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>213.25</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>113.25</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -4504,31 +4504,31 @@
         <v>68</v>
       </c>
       <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>281.875</v>
+      </c>
+      <c r="E37" t="n">
         <v>58</v>
       </c>
-      <c r="C37" t="n">
+      <c r="F37" t="n">
         <v>1212.25</v>
       </c>
-      <c r="D37" t="n">
+      <c r="G37" t="n">
         <v>70.125</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1110.75</v>
       </c>
-      <c r="G37" t="n">
+      <c r="J37" t="n">
         <v>1.25</v>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-      <c r="I37" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>281.875</v>
       </c>
       <c r="K37" t="n">
         <v>7.75</v>
@@ -4608,28 +4608,28 @@
         <v>69</v>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.75</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>339.5</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>206.375</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.25</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -4715,16 +4715,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -4923,16 +4923,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>2.25</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -5235,16 +5235,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>11.25</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -5339,16 +5339,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>3.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -5443,16 +5443,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>2</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5544,31 +5544,31 @@
         <v>78</v>
       </c>
       <c r="B47" t="n">
+        <v>5211.375</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5266</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5364</v>
+      </c>
+      <c r="E47" t="n">
         <v>4953.5</v>
       </c>
-      <c r="C47" t="n">
+      <c r="F47" t="n">
         <v>5100</v>
       </c>
-      <c r="D47" t="n">
+      <c r="G47" t="n">
         <v>4670.75</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>4.5</v>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5211.375</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5266</v>
-      </c>
       <c r="J47" t="n">
-        <v>5364</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>6601.75</v>
@@ -5651,28 +5651,28 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>51.125</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.375</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>1.5</v>
       </c>
-      <c r="G48" t="n">
+      <c r="J48" t="n">
         <v>13.25</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0.25</v>
@@ -5752,31 +5752,31 @@
         <v>80</v>
       </c>
       <c r="B49" t="n">
+        <v>1556.125</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2099.5</v>
+      </c>
+      <c r="E49" t="n">
         <v>3844.75</v>
       </c>
-      <c r="C49" t="n">
+      <c r="F49" t="n">
         <v>6376.25</v>
       </c>
-      <c r="D49" t="n">
+      <c r="G49" t="n">
         <v>5100.75</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>937.75</v>
       </c>
-      <c r="G49" t="n">
+      <c r="J49" t="n">
         <v>4.5</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1556.125</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2496</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2099.5</v>
       </c>
       <c r="K49" t="n">
         <v>3017.75</v>
@@ -5856,31 +5856,31 @@
         <v>81</v>
       </c>
       <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
         <v>16.875</v>
       </c>
-      <c r="C50" t="n">
+      <c r="F50" t="n">
         <v>135.375</v>
       </c>
-      <c r="D50" t="n">
+      <c r="G50" t="n">
         <v>3.5</v>
       </c>
-      <c r="E50" t="n">
+      <c r="H50" t="n">
         <v>1296.25</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>2130.75</v>
       </c>
-      <c r="G50" t="n">
+      <c r="J50" t="n">
         <v>997.75</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -5960,31 +5960,31 @@
         <v>82</v>
       </c>
       <c r="B51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>430</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20.125</v>
+      </c>
+      <c r="E51" t="n">
         <v>2276.625</v>
       </c>
-      <c r="C51" t="n">
+      <c r="F51" t="n">
         <v>1276.375</v>
       </c>
-      <c r="D51" t="n">
+      <c r="G51" t="n">
         <v>1270.625</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>2.25</v>
       </c>
-      <c r="G51" t="n">
+      <c r="J51" t="n">
         <v>30</v>
-      </c>
-      <c r="H51" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>430</v>
-      </c>
-      <c r="J51" t="n">
-        <v>20.125</v>
       </c>
       <c r="K51" t="n">
         <v>976.25</v>
@@ -6067,16 +6067,16 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>10.125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -6168,28 +6168,28 @@
         <v>84</v>
       </c>
       <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.75</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0.75</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -6272,31 +6272,31 @@
         <v>85</v>
       </c>
       <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E54" t="n">
         <v>220</v>
       </c>
-      <c r="C54" t="n">
+      <c r="F54" t="n">
         <v>659.375</v>
       </c>
-      <c r="D54" t="n">
+      <c r="G54" t="n">
         <v>287.25</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0.5</v>
       </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1.75</v>
@@ -6584,31 +6584,31 @@
         <v>88</v>
       </c>
       <c r="B57" t="n">
+        <v>5971</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6207.25</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5840.375</v>
+      </c>
+      <c r="E57" t="n">
         <v>9013.25</v>
       </c>
-      <c r="C57" t="n">
+      <c r="F57" t="n">
         <v>8363.625</v>
       </c>
-      <c r="D57" t="n">
+      <c r="G57" t="n">
         <v>8303</v>
       </c>
-      <c r="E57" t="n">
+      <c r="H57" t="n">
         <v>1.75</v>
       </c>
-      <c r="F57" t="n">
+      <c r="I57" t="n">
         <v>46.125</v>
       </c>
-      <c r="G57" t="n">
+      <c r="J57" t="n">
         <v>64.75</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5971</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6207.25</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5840.375</v>
       </c>
       <c r="K57" t="n">
         <v>2578.875</v>
@@ -6688,28 +6688,28 @@
         <v>89</v>
       </c>
       <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
         <v>7.875</v>
       </c>
-      <c r="C58" t="n">
+      <c r="F58" t="n">
         <v>284.75</v>
       </c>
-      <c r="D58" t="n">
+      <c r="G58" t="n">
         <v>25.75</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.25</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -6795,25 +6795,25 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
         <v>1.5</v>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>5.75</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -6899,25 +6899,25 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>48.25</v>
       </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>2.25</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9.75</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -7000,31 +7000,31 @@
         <v>92</v>
       </c>
       <c r="B61" t="n">
+        <v>200</v>
+      </c>
+      <c r="C61" t="n">
+        <v>798</v>
+      </c>
+      <c r="D61" t="n">
+        <v>783.625</v>
+      </c>
+      <c r="E61" t="n">
         <v>301.375</v>
       </c>
-      <c r="C61" t="n">
+      <c r="F61" t="n">
         <v>1020</v>
       </c>
-      <c r="D61" t="n">
+      <c r="G61" t="n">
         <v>231.125</v>
       </c>
-      <c r="E61" t="n">
+      <c r="H61" t="n">
         <v>136.875</v>
       </c>
-      <c r="F61" t="n">
+      <c r="I61" t="n">
         <v>1278.75</v>
       </c>
-      <c r="G61" t="n">
+      <c r="J61" t="n">
         <v>94.25</v>
-      </c>
-      <c r="H61" t="n">
-        <v>200</v>
-      </c>
-      <c r="I61" t="n">
-        <v>798</v>
-      </c>
-      <c r="J61" t="n">
-        <v>783.625</v>
       </c>
       <c r="K61" t="n">
         <v>470.125</v>
@@ -7104,31 +7104,31 @@
         <v>93</v>
       </c>
       <c r="B62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>293.375</v>
+      </c>
+      <c r="D62" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="E62" t="n">
         <v>383.125</v>
       </c>
-      <c r="C62" t="n">
+      <c r="F62" t="n">
         <v>1154.25</v>
       </c>
-      <c r="D62" t="n">
+      <c r="G62" t="n">
         <v>235.5</v>
       </c>
-      <c r="E62" t="n">
+      <c r="H62" t="n">
         <v>0.625</v>
       </c>
-      <c r="F62" t="n">
+      <c r="I62" t="n">
         <v>67.5</v>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I62" t="n">
-        <v>293.375</v>
-      </c>
       <c r="J62" t="n">
-        <v>180.25</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>168.75</v>
@@ -7208,31 +7208,31 @@
         <v>94</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>2474</v>
       </c>
       <c r="C63" t="n">
+        <v>3239.75</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2961.375</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
         <v>60.375</v>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>9.25</v>
       </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2474</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3239.75</v>
-      </c>
       <c r="J63" t="n">
-        <v>2961.375</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0.25</v>
@@ -7315,28 +7315,28 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
+        <v>108</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
         <v>82.625</v>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>128.375</v>
       </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>108</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -7419,25 +7419,25 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
         <v>34.375</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>18</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -7523,28 +7523,28 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
+        <v>791.75</v>
+      </c>
+      <c r="D66" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
         <v>234.375</v>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>30.375</v>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>791.75</v>
-      </c>
       <c r="J66" t="n">
-        <v>355.5</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -7624,31 +7624,31 @@
         <v>98</v>
       </c>
       <c r="B67" t="n">
+        <v>7518.75</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8342.125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7756.125</v>
+      </c>
+      <c r="E67" t="n">
         <v>5050.625</v>
       </c>
-      <c r="C67" t="n">
+      <c r="F67" t="n">
         <v>6038.375</v>
       </c>
-      <c r="D67" t="n">
+      <c r="G67" t="n">
         <v>4908.75</v>
       </c>
-      <c r="E67" t="n">
+      <c r="H67" t="n">
         <v>3.25</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>231.25</v>
       </c>
-      <c r="G67" t="n">
+      <c r="J67" t="n">
         <v>160</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7518.75</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8342.125</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7756.125</v>
       </c>
       <c r="K67" t="n">
         <v>9832</v>
@@ -7832,31 +7832,31 @@
         <v>100</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C69" t="n">
+        <v>111.125</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
         <v>13.5</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>111.125</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>423.125</v>
@@ -7939,25 +7939,25 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
         <v>98.25</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>33.375</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.5</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -8040,31 +8040,31 @@
         <v>102</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>42.25</v>
       </c>
       <c r="C71" t="n">
+        <v>605.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>557.625</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
         <v>249</v>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>16.875</v>
       </c>
-      <c r="F71" t="n">
+      <c r="I71" t="n">
         <v>394.25</v>
       </c>
-      <c r="G71" t="n">
+      <c r="J71" t="n">
         <v>175.125</v>
-      </c>
-      <c r="H71" t="n">
-        <v>42.25</v>
-      </c>
-      <c r="I71" t="n">
-        <v>605.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>557.625</v>
       </c>
       <c r="K71" t="n">
         <v>1.75</v>
@@ -8147,28 +8147,28 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
         <v>412.5</v>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>275.25</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7.75</v>
-      </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0.25</v>
@@ -8248,31 +8248,31 @@
         <v>104</v>
       </c>
       <c r="B73" t="n">
+        <v>4996.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5141.75</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4795.75</v>
+      </c>
+      <c r="E73" t="n">
         <v>6451.875</v>
       </c>
-      <c r="C73" t="n">
+      <c r="F73" t="n">
         <v>7919.5</v>
       </c>
-      <c r="D73" t="n">
+      <c r="G73" t="n">
         <v>6458.75</v>
       </c>
-      <c r="E73" t="n">
+      <c r="H73" t="n">
         <v>329.25</v>
       </c>
-      <c r="F73" t="n">
+      <c r="I73" t="n">
         <v>1338.625</v>
       </c>
-      <c r="G73" t="n">
+      <c r="J73" t="n">
         <v>1177.25</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4996.5</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5141.75</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4795.75</v>
       </c>
       <c r="K73" t="n">
         <v>6011.75</v>
@@ -8355,28 +8355,28 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
+        <v>241.625</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.875</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
         <v>502.5</v>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.25</v>
       </c>
-      <c r="F74" t="n">
+      <c r="I74" t="n">
         <v>381</v>
       </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>241.625</v>
-      </c>
       <c r="J74" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>105.375</v>
@@ -8456,31 +8456,31 @@
         <v>106</v>
       </c>
       <c r="B75" t="n">
+        <v>416.375</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1104.625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>678.625</v>
+      </c>
+      <c r="E75" t="n">
         <v>1744</v>
       </c>
-      <c r="C75" t="n">
+      <c r="F75" t="n">
         <v>2601.625</v>
       </c>
-      <c r="D75" t="n">
+      <c r="G75" t="n">
         <v>1820.75</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>207.25</v>
       </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>416.375</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1104.625</v>
-      </c>
       <c r="J75" t="n">
-        <v>678.625</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>1348.625</v>
@@ -8563,25 +8563,25 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
         <v>112.125</v>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>5.5</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.75</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -8667,25 +8667,25 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
         <v>1</v>
       </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>2.25</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.5</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
         <v>139.75</v>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>9</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.25</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -8872,31 +8872,31 @@
         <v>110</v>
       </c>
       <c r="B79" t="n">
+        <v>6422.625</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6736.375</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6724.625</v>
+      </c>
+      <c r="E79" t="n">
         <v>8130.875</v>
       </c>
-      <c r="C79" t="n">
+      <c r="F79" t="n">
         <v>9073.25</v>
       </c>
-      <c r="D79" t="n">
+      <c r="G79" t="n">
         <v>8063.875</v>
       </c>
-      <c r="E79" t="n">
+      <c r="H79" t="n">
         <v>29.5</v>
       </c>
-      <c r="F79" t="n">
+      <c r="I79" t="n">
         <v>412.25</v>
       </c>
-      <c r="G79" t="n">
+      <c r="J79" t="n">
         <v>74.25</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6422.625</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6736.375</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6724.625</v>
       </c>
       <c r="K79" t="n">
         <v>3683.375</v>
@@ -8988,16 +8988,16 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>3</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -9083,25 +9083,25 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
         <v>169.5</v>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>10</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -9184,28 +9184,28 @@
         <v>113</v>
       </c>
       <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
         <v>54.125</v>
       </c>
-      <c r="C82" t="n">
+      <c r="F82" t="n">
         <v>571.125</v>
       </c>
-      <c r="D82" t="n">
+      <c r="G82" t="n">
         <v>89.625</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>398.625</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4.75</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -9288,31 +9288,31 @@
         <v>114</v>
       </c>
       <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E83" t="n">
         <v>250.375</v>
       </c>
-      <c r="C83" t="n">
+      <c r="F83" t="n">
         <v>1167.25</v>
       </c>
-      <c r="D83" t="n">
+      <c r="G83" t="n">
         <v>242.5</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>672.375</v>
       </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6.75</v>
-      </c>
       <c r="J83" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>2.25</v>
@@ -9395,28 +9395,28 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
         <v>824.75</v>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>1079.75</v>
       </c>
-      <c r="G84" t="n">
+      <c r="J84" t="n">
         <v>0.125</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.75</v>
       </c>
       <c r="K84" t="n">
         <v>1.5</v>
@@ -9496,31 +9496,31 @@
         <v>116</v>
       </c>
       <c r="B85" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C85" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>25.875</v>
+      </c>
+      <c r="E85" t="n">
         <v>2.75</v>
       </c>
-      <c r="C85" t="n">
+      <c r="F85" t="n">
         <v>2292</v>
       </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.5</v>
       </c>
-      <c r="F85" t="n">
+      <c r="I85" t="n">
         <v>2254.375</v>
       </c>
-      <c r="G85" t="n">
+      <c r="J85" t="n">
         <v>11.25</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I85" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>25.875</v>
       </c>
       <c r="K85" t="n">
         <v>53.125</v>
@@ -9600,31 +9600,31 @@
         <v>117</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C86" t="n">
+        <v>863.375</v>
+      </c>
+      <c r="D86" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
         <v>589.875</v>
       </c>
-      <c r="D86" t="n">
+      <c r="G86" t="n">
         <v>0.25</v>
       </c>
-      <c r="E86" t="n">
+      <c r="H86" t="n">
         <v>2.25</v>
       </c>
-      <c r="F86" t="n">
+      <c r="I86" t="n">
         <v>808.25</v>
       </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I86" t="n">
-        <v>863.375</v>
-      </c>
       <c r="J86" t="n">
-        <v>346.75</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>360.875</v>
@@ -9704,31 +9704,31 @@
         <v>118</v>
       </c>
       <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1006.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="E87" t="n">
         <v>137.125</v>
       </c>
-      <c r="C87" t="n">
+      <c r="F87" t="n">
         <v>1258.75</v>
       </c>
-      <c r="D87" t="n">
+      <c r="G87" t="n">
         <v>196</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>578.125</v>
       </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1006.5</v>
-      </c>
       <c r="J87" t="n">
-        <v>595.5</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>312.375</v>
@@ -9808,31 +9808,31 @@
         <v>119</v>
       </c>
       <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>233</v>
+      </c>
+      <c r="D88" t="n">
+        <v>50.375</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.75</v>
       </c>
-      <c r="C88" t="n">
+      <c r="F88" t="n">
         <v>970.375</v>
       </c>
-      <c r="D88" t="n">
+      <c r="G88" t="n">
         <v>3.25</v>
       </c>
-      <c r="E88" t="n">
+      <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="F88" t="n">
+      <c r="I88" t="n">
         <v>659.625</v>
       </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>233</v>
-      </c>
       <c r="J88" t="n">
-        <v>50.375</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>3197.625</v>
@@ -9912,31 +9912,31 @@
         <v>120</v>
       </c>
       <c r="B89" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C89" t="n">
+        <v>574.875</v>
+      </c>
+      <c r="D89" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="E89" t="n">
         <v>446</v>
       </c>
-      <c r="C89" t="n">
+      <c r="F89" t="n">
         <v>1252.5</v>
       </c>
-      <c r="D89" t="n">
+      <c r="G89" t="n">
         <v>388.125</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>274.375</v>
       </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I89" t="n">
-        <v>574.875</v>
-      </c>
       <c r="J89" t="n">
-        <v>371.25</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>117.75</v>
@@ -10019,28 +10019,28 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
+        <v>141</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
         <v>323.875</v>
       </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>347</v>
       </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>141</v>
-      </c>
       <c r="J90" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>63.5</v>
@@ -10123,25 +10123,25 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
+        <v>62.25</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
         <v>337</v>
       </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>474.375</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>62.25</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -10227,25 +10227,25 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>1174.75</v>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>1996.625</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.375</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -10331,28 +10331,28 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
         <v>1159.5</v>
       </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>1666.125</v>
       </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.75</v>
-      </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>2.25</v>
@@ -10432,31 +10432,31 @@
         <v>125</v>
       </c>
       <c r="B94" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1820.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1897.25</v>
+      </c>
+      <c r="E94" t="n">
         <v>3561</v>
       </c>
-      <c r="C94" t="n">
+      <c r="F94" t="n">
         <v>5773.875</v>
       </c>
-      <c r="D94" t="n">
+      <c r="G94" t="n">
         <v>3630.75</v>
       </c>
-      <c r="E94" t="n">
+      <c r="H94" t="n">
         <v>1424.625</v>
       </c>
-      <c r="F94" t="n">
+      <c r="I94" t="n">
         <v>3988.625</v>
       </c>
-      <c r="G94" t="n">
+      <c r="J94" t="n">
         <v>1403.375</v>
-      </c>
-      <c r="H94" t="n">
-        <v>499.5</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1820.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1897.25</v>
       </c>
       <c r="K94" t="n">
         <v>1450.75</v>
@@ -10539,28 +10539,28 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
+        <v>226.125</v>
+      </c>
+      <c r="D95" t="n">
+        <v>45.875</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
         <v>1139.375</v>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>1615.375</v>
       </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>226.125</v>
-      </c>
       <c r="J95" t="n">
-        <v>45.875</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>82.75</v>
@@ -10643,28 +10643,28 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>148</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
         <v>1330.75</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>2116.5</v>
       </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>256.5</v>
-      </c>
       <c r="J96" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>167.25</v>
@@ -10744,31 +10744,31 @@
         <v>128</v>
       </c>
       <c r="B97" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="C97" t="n">
+        <v>904.125</v>
+      </c>
+      <c r="D97" t="n">
+        <v>850.25</v>
+      </c>
+      <c r="E97" t="n">
         <v>9</v>
       </c>
-      <c r="C97" t="n">
+      <c r="F97" t="n">
         <v>1317.125</v>
       </c>
-      <c r="D97" t="n">
+      <c r="G97" t="n">
         <v>15</v>
       </c>
-      <c r="E97" t="n">
+      <c r="H97" t="n">
         <v>10.25</v>
       </c>
-      <c r="F97" t="n">
+      <c r="I97" t="n">
         <v>1080.75</v>
       </c>
-      <c r="G97" t="n">
+      <c r="J97" t="n">
         <v>8.75</v>
-      </c>
-      <c r="H97" t="n">
-        <v>38.25</v>
-      </c>
-      <c r="I97" t="n">
-        <v>904.125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>850.25</v>
       </c>
       <c r="K97" t="n">
         <v>440.875</v>
